--- a/data/trans_bre/P70D_R_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P70D_R_2023-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7515001678721621</v>
+        <v>0.7515001678721628</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.2323254786941752</v>
+        <v>0.2323254786941754</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.255391696357108</v>
+        <v>-2.287313356147565</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.4698120178212705</v>
+        <v>-0.5172511153409969</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.541026994520579</v>
+        <v>3.390397161250221</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2.11001943580491</v>
+        <v>2.034073929085948</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01266129081206463</v>
+        <v>0.01266129081206394</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.004035235877533346</v>
+        <v>0.004035235877533124</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.225310153683778</v>
+        <v>-3.108473028904883</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.670136128521327</v>
+        <v>-0.6749226311435165</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.751892796291153</v>
+        <v>2.472022979013679</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.749438607390081</v>
+        <v>1.512511364098002</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1240118346243089</v>
+        <v>-0.01087632900156305</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.1753798866949011</v>
+        <v>-0.1748696592883233</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.13906355067463</v>
+        <v>10.55964690465876</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>7.157781376707997</v>
+        <v>8.651603330597283</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-0.8024940727872576</v>
+        <v>-0.8024940727872569</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1291656287723154</v>
+        <v>-0.1291656287723153</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.595409340210505</v>
+        <v>-3.613453322354915</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.470441448978556</v>
+        <v>-0.4626370104499909</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.251666782743486</v>
+        <v>1.860318779760079</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4873433649387009</v>
+        <v>0.3950135396892379</v>
       </c>
     </row>
     <row r="16">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.079254547180009</v>
+        <v>2.309564900976656</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.2885123182509485</v>
+        <v>0.330482401186836</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.04880976253858</v>
+        <v>9.878385068899204</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3.817126369818602</v>
+        <v>3.75093311018782</v>
       </c>
     </row>
     <row r="19">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05348197483056982</v>
+        <v>-0.07760242685819559</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.003283349770455333</v>
+        <v>-0.02435368622813034</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.101688298466962</v>
+        <v>2.890940741228159</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8497116969681349</v>
+        <v>0.777307750746976</v>
       </c>
     </row>
     <row r="22">
